--- a/files/procurement_plan_GOODS.xlsx
+++ b/files/procurement_plan_GOODS.xlsx
@@ -23,6 +23,9 @@
     <t>Ref: PPR, 2008</t>
   </si>
   <si>
+    <t>Total procurement plan for development project/programme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>Others (FE): 21.77(11.75)</t>
-  </si>
-  <si>
-    <t>Total procurement plan for development project/programme</t>
   </si>
   <si>
     <t>Package No.</t>
@@ -195,8 +195,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10"/>
-      <b val="0"/>
+      <sz val="13"/>
+      <b val="1"/>
       <i val="0"/>
       <u val="none"/>
       <strike val="0"/>
@@ -204,8 +204,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="13"/>
-      <b val="1"/>
+      <sz val="10"/>
+      <b val="0"/>
       <i val="0"/>
       <u val="none"/>
       <strike val="0"/>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -269,28 +269,25 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -298,7 +295,7 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -607,7 +604,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -664,9 +661,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -677,198 +672,166 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s"/>
-      <c r="E8" s="4" t="s"/>
-      <c r="F8" s="4" t="s"/>
-      <c r="G8" s="4" t="s"/>
-      <c r="H8" s="10" t="s"/>
-      <c r="I8" s="4" t="s"/>
-      <c r="J8" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="D10" s="5" t="s"/>
+      <c r="E10" s="5" t="s"/>
+      <c r="F10" s="5" t="s"/>
+      <c r="G10" s="5" t="s"/>
+      <c r="H10" s="10" t="s"/>
+      <c r="I10" s="5" t="s"/>
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="12" t="s"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="H11" s="12" t="s"/>
+      <c r="H11" s="11" t="s"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="H12" s="11" t="s"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14">
-        <v>46</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="14">
-        <v>5</v>
+      <c r="H14" s="13">
+        <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>31</v>
@@ -877,32 +840,32 @@
         <v>32</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="14">
-        <v>4</v>
+      <c r="H15" s="13">
+        <v>5</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>31</v>
@@ -911,50 +874,84 @@
         <v>32</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
-        <f>SUM(H7:H15)</f>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16">
+        <f>SUM(H7:H16)</f>
         <v>55</v>
       </c>
-      <c r="I16" s="16" t="s"/>
-      <c r="J16" s="16" t="s"/>
-      <c r="K16" s="16" t="s"/>
-      <c r="L16" s="16" t="s"/>
+      <c r="I17" s="15" t="s"/>
+      <c r="J17" s="15" t="s"/>
+      <c r="K17" s="15" t="s"/>
+      <c r="L17" s="15" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C6:L6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C7:L7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/procurement_plan_GOODS.xlsx
+++ b/files/procurement_plan_GOODS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Annex - III (a)</t>
   </si>
@@ -47,7 +47,7 @@
 </t>
   </si>
   <si>
-    <t>Total GoB (FE): 25.03(17.439999999999998)</t>
+    <t>Total GoB (FE): 48.03(17.439999999999998)</t>
   </si>
   <si>
     <t xml:space="preserve">Procuring Entity Name and Code: </t>
@@ -56,7 +56,7 @@
     <t>Procuring Entity</t>
   </si>
   <si>
-    <t>Total PA (RPA): 33(25)</t>
+    <t>Total PA (RPA): 56(48)</t>
   </si>
   <si>
     <t xml:space="preserve">Project/Programme Code: </t>
@@ -153,6 +153,57 @@
   </si>
   <si>
     <t>2014-08-03</t>
+  </si>
+  <si>
+    <t>ddfsd s sdfsdf</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>GoB</t>
+  </si>
+  <si>
+    <t>UNDP</t>
+  </si>
+  <si>
+    <t>2014-08-26</t>
+  </si>
+  <si>
+    <t>2014-08-28</t>
+  </si>
+  <si>
+    <t>sd sdfs s sdf dsf sdf sdf sfd</t>
+  </si>
+  <si>
+    <t>TSTM(NCT)</t>
+  </si>
+  <si>
+    <t>2014-08-02</t>
+  </si>
+  <si>
+    <t>dfd fdf df df df df df</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>GOB</t>
+  </si>
+  <si>
+    <t>2014-08-19</t>
+  </si>
+  <si>
+    <t>sdf sd fyty</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -604,7 +655,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -915,23 +966,175 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="9">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16">
-        <f>SUM(H7:H16)</f>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="13">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="13">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="15" t="s"/>
-      <c r="J17" s="15" t="s"/>
-      <c r="K17" s="15" t="s"/>
-      <c r="L17" s="15" t="s"/>
+      <c r="G19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="13">
+        <v>123</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9">
+        <v>48</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9">
+        <v>34</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="13">
+        <v>267</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16">
+        <f>SUM(H7:H20)</f>
+        <v>469</v>
+      </c>
+      <c r="I21" s="15" t="s"/>
+      <c r="J21" s="15" t="s"/>
+      <c r="K21" s="15" t="s"/>
+      <c r="L21" s="15" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -951,7 +1154,7 @@
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
